--- a/dist/assets/BOs/Shennong.xlsx
+++ b/dist/assets/BOs/Shennong.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\doc\coding\DoD\DeitiesOfDeath\public\assets\BOs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC532933-89BE-404B-82F0-B3863D9440DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F196EDB-9EEA-4A49-B4E8-AA4540B396C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="3" r:id="rId1"/>
@@ -927,9 +927,6 @@
 3 stay on food</t>
   </si>
   <si>
-    <t>I make sure Auto-build Kuafu is turned OFF and I set myTC villager rally to wood.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Immediately send first Yazi to attack villagers and research "Son of Loong" from the temple.
 You will have a short amount of time (est around the 4.40 time mark) to do damage. 
 Try to get out of there just before the enemy reaches Classical age. 
@@ -1046,6 +1043,9 @@
   <si>
     <t>7/3/4/0
 9/2/7/0</t>
+  </si>
+  <si>
+    <t>I make sure Auto-build Kuafu is turned OFF and I put  myTC villager rally to wood.</t>
   </si>
 </sst>
 </file>
@@ -1258,6 +1258,9 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1295,9 +1298,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1645,25 +1645,25 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1671,7 +1671,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="180.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="215.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
@@ -1681,7 +1681,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="70.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>36</v>
       </c>
@@ -1695,7 +1695,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>40</v>
       </c>
@@ -1705,15 +1705,15 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="14" t="s">
+    <row r="7" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="B7" s="15"/>
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-    </row>
-    <row r="8" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+    </row>
+    <row r="8" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>19</v>
       </c>
@@ -1721,7 +1721,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="111.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>42</v>
       </c>
@@ -1731,15 +1731,15 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="14" t="s">
+    <row r="10" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-    </row>
-    <row r="11" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="17"/>
+    </row>
+    <row r="11" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
@@ -1747,7 +1747,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>45</v>
       </c>
@@ -1776,25 +1776,25 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="18" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1802,7 +1802,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="166.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="186.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>57</v>
       </c>
@@ -1812,7 +1812,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>59</v>
       </c>
@@ -1824,7 +1824,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>60</v>
       </c>
@@ -1834,7 +1834,7 @@
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" spans="1:4" ht="70.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
         <v>61</v>
       </c>
@@ -1844,7 +1844,7 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>62</v>
       </c>
@@ -1854,7 +1854,7 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
         <v>63</v>
       </c>
@@ -1866,7 +1866,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="70.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>64</v>
       </c>
@@ -1878,7 +1878,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
         <v>65</v>
       </c>
@@ -1888,15 +1888,15 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="14" t="s">
+    <row r="12" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-    </row>
-    <row r="13" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="16"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
@@ -1904,7 +1904,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="1:4" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" ht="58.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
         <v>66</v>
       </c>
@@ -1916,13 +1916,13 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="14" t="s">
+    <row r="15" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1943,25 +1943,25 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:4" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="13"/>
-    </row>
-    <row r="2" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="14" t="s">
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="14"/>
+    </row>
+    <row r="2" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="15"/>
-      <c r="C2" s="15"/>
-      <c r="D2" s="16"/>
-    </row>
-    <row r="3" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+    </row>
+    <row r="3" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>19</v>
       </c>
@@ -1969,7 +1969,7 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" spans="1:4" ht="180.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" ht="215.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>34</v>
       </c>
@@ -1979,7 +1979,7 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" spans="1:4" ht="56.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>46</v>
       </c>
@@ -1989,7 +1989,7 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" spans="1:4" ht="70.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" ht="72.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>48</v>
       </c>
@@ -2003,7 +2003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>49</v>
       </c>
@@ -2013,15 +2013,15 @@
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="14" t="s">
+    <row r="8" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="15" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-    </row>
-    <row r="9" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="17"/>
+    </row>
+    <row r="9" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -2029,7 +2029,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" spans="1:4" ht="111.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" ht="115.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>51</v>
       </c>
@@ -2039,15 +2039,15 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="14" t="s">
+    <row r="11" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-    </row>
-    <row r="12" spans="1:4" ht="42.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+    </row>
+    <row r="12" spans="1:4" ht="44.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>19</v>
       </c>
@@ -2055,7 +2055,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" spans="1:4" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" ht="30" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>54</v>
       </c>
@@ -2080,29 +2080,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5BD5538-0D83-476C-B2CD-795D7011D4BF}">
   <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:D1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-    </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="19" t="s">
+    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+    </row>
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>19</v>
       </c>
@@ -2110,7 +2110,7 @@
       <c r="C3" s="6"/>
       <c r="D3" s="4"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>68</v>
       </c>
@@ -2122,7 +2122,7 @@
       </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>71</v>
       </c>
@@ -2132,7 +2132,7 @@
       </c>
       <c r="D5" s="4"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>73</v>
       </c>
@@ -2142,7 +2142,7 @@
       </c>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>75</v>
       </c>
@@ -2152,21 +2152,21 @@
       </c>
       <c r="D7" s="4"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
     </row>
-    <row r="9" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="19"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>78</v>
       </c>
@@ -2174,61 +2174,61 @@
         <v>79</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>80</v>
+        <v>112</v>
       </c>
       <c r="D10" s="4"/>
     </row>
-    <row r="11" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="18"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
         <v>81</v>
-      </c>
-      <c r="D12" s="4"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="6" t="s">
-        <v>82</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="D13" s="4"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14" s="6" t="s">
+      <c r="B14" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B14" s="6" t="s">
+      <c r="C14" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>86</v>
-      </c>
       <c r="D14" s="4"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" s="4"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="4"/>
     </row>
@@ -2247,143 +2247,143 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D6B550C-7CAA-42CD-BC35-688CECA2CDBD}">
   <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.796875" customWidth="1"/>
+    <col min="1" max="1" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="19.8" x14ac:dyDescent="0.4">
-      <c r="A1" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A2" s="23" t="s">
+    <row r="1" spans="1:4" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+    </row>
+    <row r="2" spans="1:4" ht="21" x14ac:dyDescent="0.35">
+      <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-    </row>
-    <row r="3" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+    </row>
+    <row r="3" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C3" s="9"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>68</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="C4" s="9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>68</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="C5" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="C5" s="9" t="s">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
+      <c r="B6" s="9" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="C6" s="9"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="C6" s="9"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
+      <c r="B7" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="C7" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="C7" s="9" t="s">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
+      <c r="B8" s="10" t="s">
         <v>99</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>100</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
     </row>
-    <row r="9" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A9" s="24" t="s">
+    <row r="9" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A9" s="25" t="s">
+        <v>100</v>
+      </c>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="B9" s="22"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
+      <c r="B10" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="1:4" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A11" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="C10" s="9"/>
-    </row>
-    <row r="11" spans="1:4" ht="17.399999999999999" x14ac:dyDescent="0.35">
-      <c r="A11" s="24" t="s">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>104</v>
       </c>
-      <c r="B11" s="22"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B12" s="9" t="s">
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13" s="9" t="s">
+      <c r="B13" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B13" s="9" t="s">
+      <c r="C13" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C13" s="9" t="s">
+    </row>
+    <row r="14" spans="1:4" ht="26.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="9" t="s">
+      <c r="C14" s="9" t="s">
         <v>109</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -2403,27 +2403,27 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="60" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -2437,7 +2437,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2453,7 +2453,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -2469,17 +2469,17 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
